--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1194373.393229323</v>
+        <v>-1196271.625333447</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154.8679066298401</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>293.3045822019947</v>
+        <v>270.8057478408929</v>
       </c>
     </row>
     <row r="3">
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>25.06545967998138</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>155.3530944798163</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>198.1920312293053</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>125.8092116959086</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>11.85769515071286</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>344.3310636953907</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>56.49576810820431</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174145</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>54.40067852162801</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>7.959851652141372</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498021</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>58.73430469008298</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>174.1677741775053</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>9.1565920995477</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>180.3615408485043</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>220.5564908718524</v>
+        <v>136.8736401074742</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>101.0041688483411</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>87.06599827227923</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>43.5776723133342</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329119</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463175</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898766</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463175</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274027</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.575150942547</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X2" t="n">
-        <v>2048.575150942547</v>
+        <v>1893.744059709404</v>
       </c>
       <c r="Y2" t="n">
-        <v>1752.307896193057</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.5125998356232</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C4" t="n">
-        <v>247.5125998356232</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>702.8103380650389</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>475.5021507336406</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>475.5021507336406</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>475.5021507336406</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>475.5021507336406</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>247.5125998356232</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y4" t="n">
-        <v>247.5125998356232</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>806.0470106353782</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2309.020596206506</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2309.020596206506</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2309.020596206506</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1956.251940936392</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1582.786182675312</v>
+        <v>1363.282733282571</v>
       </c>
       <c r="Y5" t="n">
-        <v>1192.6468506995</v>
+        <v>973.1434013067596</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>350.0227938960811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>819.715945170047</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1757.312204670903</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>111.0094142528941</v>
       </c>
     </row>
     <row r="11">
@@ -5036,52 +5036,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>380.9740019042114</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115524</v>
+        <v>627.7391298106755</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1396.107276203137</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>467.9934022109799</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C13" t="n">
-        <v>299.057219283073</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>299.057219283073</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W13" t="n">
-        <v>1098.423997082767</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="X13" t="n">
-        <v>870.4344461847497</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="Y13" t="n">
-        <v>649.6418670412196</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,16 +5294,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5358,25 +5358,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.67826817104</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>674.6944526764914</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>505.7582697485846</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362488</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362488</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1439.588690062869</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1439.588690062869</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>1439.588690062869</v>
+        <v>788.2086972010437</v>
       </c>
       <c r="V16" t="n">
-        <v>1184.904201856982</v>
+        <v>533.5242089951569</v>
       </c>
       <c r="W16" t="n">
-        <v>895.4870318200216</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="X16" t="n">
-        <v>895.4870318200216</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y16" t="n">
-        <v>674.6944526764914</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,10 +5501,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,49 +5513,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5580,28 +5580,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>901.6749225845923</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>544.6416868225887</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C19" t="n">
-        <v>544.6416868225887</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>394.5250474102529</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1178.672074106445</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>889.5434353200028</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>634.8589471141159</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>634.8589471141159</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>634.8589471141159</v>
       </c>
       <c r="Y19" t="n">
-        <v>544.6416868225887</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5832,22 +5832,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>542.1367719529251</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>985.7136853104475</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X22" t="n">
-        <v>762.9293510964552</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y22" t="n">
-        <v>542.1367719529251</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790661</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1912.313820009358</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2432.614441745105</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6148,19 +6148,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,25 +6169,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6212,43 +6212,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823804</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.8045051785809</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C28" t="n">
-        <v>358.8683222506741</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,13 +6391,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6412,22 +6412,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>1120.037901087684</v>
       </c>
       <c r="V28" t="n">
-        <v>1133.156678913841</v>
+        <v>865.353412881797</v>
       </c>
       <c r="W28" t="n">
-        <v>843.7395088768803</v>
+        <v>865.353412881797</v>
       </c>
       <c r="X28" t="n">
-        <v>615.749957978863</v>
+        <v>637.3638619837797</v>
       </c>
       <c r="Y28" t="n">
-        <v>615.749957978863</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6598,22 +6598,22 @@
         <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D31" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E31" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,10 +6622,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6686,43 +6686,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,16 +6786,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6835,34 +6835,34 @@
         <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,13 +6923,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6938,16 +6938,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6962,22 +6962,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,22 +7014,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504515</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,28 +7157,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7491,22 +7491,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,28 +7564,28 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525404</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384657</v>
@@ -7594,7 +7594,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7673,25 +7673,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7786,34 +7786,34 @@
         <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
@@ -7840,13 +7840,13 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010319</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>94.13752431970491</v>
       </c>
       <c r="L12" t="n">
-        <v>288.4091825776758</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,19 +9006,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>242.9997743936041</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627436</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9246,13 +9246,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>52.49733361305169</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>199.6230805871099</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119848</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9726,19 +9726,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.13752431970678</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720756</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>52.49733361305351</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,16 +10200,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>176.717654749845</v>
       </c>
       <c r="O30" t="n">
-        <v>288.4091825776749</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>180.0237016735873</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>62.7946592898312</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>297.2466435761027</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>134.4977453535105</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>21.50854389548656</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>92.93335645405887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>11.18263959690384</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>92.03328412494116</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633821</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675312</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>210.6248016999534</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.1865052935203</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>112.069578221072</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>212.3909689588415</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>38.22311250359053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>5.153164517184763</v>
+        <v>88.83601528156299</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>185.2331835502363</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92.76598190965807</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24652,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>242.6596800852431</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.851674745297692e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-2.862155085169411e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.258016244624741e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-4.405364961712621e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1299205.551708205</v>
+        <v>1299205.551708204</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1245999.414104646</v>
+        <v>1245999.414104647</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142387.7480708447</v>
+        <v>142387.7480708446</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262497</v>
@@ -26323,10 +26323,10 @@
         <v>136860.1709081981</v>
       </c>
       <c r="F2" t="n">
-        <v>136860.170908198</v>
+        <v>136860.1709081981</v>
       </c>
       <c r="G2" t="n">
-        <v>136860.1709081981</v>
+        <v>136860.1709081982</v>
       </c>
       <c r="H2" t="n">
         <v>136860.1709081981</v>
@@ -26338,13 +26338,13 @@
         <v>136860.1709081981</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262492</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262493</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262494</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262496</v>
@@ -26353,7 +26353,7 @@
         <v>143682.3097262495</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262495</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
+        <v>54505.51210371254</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>134801.0152338373</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>54505.51210371256</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>134801.015233837</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>54505.51210371251</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152552.7115643756</v>
+        <v>152552.7115643754</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26427,37 +26427,37 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143904</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="P4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26497,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-682991.9207714847</v>
+        <v>-683010.414509419</v>
       </c>
       <c r="C6" t="n">
+        <v>-95951.72658838241</v>
+      </c>
+      <c r="D6" t="n">
         <v>-95951.72658838233</v>
       </c>
-      <c r="D6" t="n">
-        <v>-95951.72658838236</v>
-      </c>
       <c r="E6" t="n">
-        <v>-495332.8611388537</v>
+        <v>-495430.3202648263</v>
       </c>
       <c r="F6" t="n">
-        <v>29827.17533804217</v>
+        <v>29729.71621207023</v>
       </c>
       <c r="G6" t="n">
-        <v>29827.17533804241</v>
+        <v>29729.71621207027</v>
       </c>
       <c r="H6" t="n">
-        <v>29827.17533804242</v>
+        <v>29729.7162120702</v>
       </c>
       <c r="I6" t="n">
-        <v>29827.17533804241</v>
+        <v>29729.71621207023</v>
       </c>
       <c r="J6" t="n">
-        <v>-146596.0438545506</v>
+        <v>-146693.5029805229</v>
       </c>
       <c r="K6" t="n">
-        <v>-46002.76506024832</v>
+        <v>-46002.76506024803</v>
       </c>
       <c r="L6" t="n">
-        <v>8502.747043464246</v>
+        <v>8502.747043464347</v>
       </c>
       <c r="M6" t="n">
         <v>-126298.2681903726</v>
       </c>
       <c r="N6" t="n">
-        <v>8502.747043464493</v>
+        <v>8502.747043464595</v>
       </c>
       <c r="O6" t="n">
-        <v>8502.747043464566</v>
+        <v>8502.747043464522</v>
       </c>
       <c r="P6" t="n">
-        <v>-46002.76506024781</v>
+        <v>-46002.76506024806</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26744,22 +26744,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26796,7 +26796,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964069</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>227.8659350336405</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>302.4142288688706</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>115.4321908151607</v>
       </c>
     </row>
     <row r="3">
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>187.0800792700375</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>61.09522587784153</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>171.5390694491637</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>20.6247509506606</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27822,13 +27822,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>56.69292621882477</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>370.8761465127677</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>62.54498204632074</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>78.46985368413391</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28056,19 +28056,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>56.01837628787189</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28150,13 +28150,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-7.895555166631037e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28260,10 +28260,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32555,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32564,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32877,10 +32877,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33114,10 +33114,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>244.7129629076443</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875337001</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>525.3634766347124</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>385.6919070110648</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>510.047457637576</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
@@ -36218,7 +36218,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>182.1505571047809</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415096</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541616</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36920,16 +36920,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>509.9122281478579</v>
       </c>
       <c r="O30" t="n">
-        <v>570.772884818783</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37008,7 +37008,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37081,7 +37081,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37154,7 +37154,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>490.4480787240536</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>448.880785543133</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37482,7 +37482,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>373.2190363402975</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37859,13 +37859,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>546.504348532127</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,10 +37874,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38105,16 +38105,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>222.5107781385846</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686865</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
